--- a/1. Project management/8. Weekly report and evaluation/Weekly Report/1. RE Weekly Report/AS_PM_WeeklyReport_Week4.xlsx
+++ b/1. Project management/8. Weekly report and evaluation/Weekly Report/1. RE Weekly Report/AS_PM_WeeklyReport_Week4.xlsx
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Owner</t>
-  </si>
-  <si>
-    <t>Plan for next week</t>
   </si>
   <si>
     <t>Risk/ Action</t>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Mentor &amp; Team</t>
+  </si>
+  <si>
+    <t>Plan for next week 5</t>
   </si>
 </sst>
 </file>
@@ -1105,6 +1105,39 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1114,26 +1147,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,6 +1191,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1192,59 +1228,23 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,16 +1567,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1591,16 +1591,16 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="88"/>
+      <c r="A3" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="100"/>
       <c r="C3" s="2"/>
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1608,10 +1608,10 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="88"/>
+      <c r="A4" s="100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="100"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1632,17 +1632,17 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -1690,70 +1690,70 @@
       <c r="G9" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="90"/>
+      <c r="I9" s="102"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="43" t="s">
+      <c r="G11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="77"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="57">
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>28</v>
       </c>
       <c r="D12" s="38">
         <v>41345</v>
@@ -1762,38 +1762,38 @@
         <v>41345</v>
       </c>
       <c r="F12" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="77"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="58">
         <v>4</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>35</v>
-      </c>
       <c r="G13" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
+        <v>31</v>
+      </c>
+      <c r="H13" s="78"/>
+      <c r="I13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="15" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1823,168 +1823,168 @@
       <c r="A16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="99"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="40" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="96"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>1</v>
       </c>
-      <c r="B17" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+      <c r="B17" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="54">
         <v>41529</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
+        <v>50</v>
+      </c>
+      <c r="H17" s="91"/>
+      <c r="I17" s="106"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>2</v>
       </c>
-      <c r="B18" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
+      <c r="B18" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="54">
         <v>41529</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="69"/>
+        <v>51</v>
+      </c>
+      <c r="H18" s="91"/>
+      <c r="I18" s="106"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>3</v>
       </c>
-      <c r="B19" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
+      <c r="B19" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="54">
         <v>41529</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
+        <v>52</v>
+      </c>
+      <c r="H19" s="91"/>
+      <c r="I19" s="106"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>4</v>
       </c>
-      <c r="B20" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
+      <c r="B20" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
       <c r="F20" s="54">
         <v>41559</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="68"/>
-      <c r="I20" s="69"/>
+        <v>49</v>
+      </c>
+      <c r="H20" s="91"/>
+      <c r="I20" s="106"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>5</v>
       </c>
-      <c r="B21" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
+      <c r="B21" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="54">
         <v>41559</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="68"/>
-      <c r="I21" s="69"/>
+        <v>31</v>
+      </c>
+      <c r="H21" s="91"/>
+      <c r="I21" s="106"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>6</v>
       </c>
-      <c r="B22" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
+      <c r="B22" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="54">
         <v>41620</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
+        <v>55</v>
+      </c>
+      <c r="H22" s="91"/>
+      <c r="I22" s="106"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>7</v>
       </c>
-      <c r="B23" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
+      <c r="B23" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
       <c r="F23" s="54">
         <v>41620</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
+        <v>31</v>
+      </c>
+      <c r="H23" s="91"/>
+      <c r="I23" s="106"/>
     </row>
     <row r="24" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21">
         <v>8</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="105"/>
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="71"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
     </row>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="26" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2014,48 +2014,48 @@
       <c r="A27" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="87"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="99"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>1</v>
       </c>
-      <c r="B28" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="104"/>
+      <c r="B28" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="69"/>
     </row>
     <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18">
         <v>2</v>
       </c>
-      <c r="B29" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107"/>
+      <c r="B29" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="72"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="31" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2085,19 +2085,19 @@
       <c r="A32" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="76"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="33" t="s">
+      <c r="F32" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
       <c r="I32" s="34" t="s">
         <v>11</v>
       </c>
@@ -2106,42 +2106,42 @@
       <c r="A33" s="42">
         <v>1</v>
       </c>
-      <c r="B33" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
+      <c r="B33" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
       <c r="E33" s="44">
         <v>41345</v>
       </c>
-      <c r="F33" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
+      <c r="F33" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
       <c r="I33" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:16384" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42">
         <v>2</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -50992,7 +50992,7 @@
     </row>
     <row r="36" spans="1:16384" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -51007,45 +51007,45 @@
       <c r="A37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="82"/>
+      <c r="B37" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="94"/>
     </row>
     <row r="38" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>1</v>
       </c>
-      <c r="B38" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="86"/>
+      <c r="B38" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
     </row>
     <row r="39" spans="1:16384" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>2</v>
       </c>
-      <c r="B39" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
+      <c r="B39" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
       <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:16384" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -51053,7 +51053,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
@@ -51098,22 +51098,11 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B39:H39"/>
@@ -51130,16 +51119,27 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
